--- a/biology/Botanique/Luzerne_marine/Luzerne_marine.xlsx
+++ b/biology/Botanique/Luzerne_marine/Luzerne_marine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicago marina
 La Luzerne marine ou Luzerne maritime (Medicago marina) est une plante appartenant au genre Medicago (les Luzernes) et à la famille des Fabacées (ou Légumineuses). Elle pousse sur les sables du littoral, et se reconnaît aisément à ses tiges rampantes, ses petites fleurs jaunes et surtout son abondante pilosité blanche.
@@ -514,17 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace poussant sur les dunes, les plages de sable de tout le littoral méditerranéen et sur les rivages de l'Atlantique (la Bretagne étant en principe sa limite septentrionale).
-La floraison a lieu de mars à juillet[1].
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace poussant sur les dunes, les plages de sable de tout le littoral méditerranéen et sur les rivages de l'Atlantique (la Bretagne étant en principe sa limite septentrionale).
+La floraison a lieu de mars à juillet.
 Pollinisation : entomogame.
-Dissémination : épizoochore.
-Morphologie générale et végétative
-Plante herbacée à tiges rampantes à ascendantes, d'une hauteur de 10 à 50 cm. L'ensemble de la plante est recouvert d'un épais feutre blanc. Feuilles alternes trifoliolées à stipules ovoïdes et pointues, entières ou légèrement dentées. Folioles ovoïdes terminées en pointe.
-Morphologie florale
-Inflorescence en racème capituliforme portant de 5 à 12 fleurs jaune vif (soufré à doré). Les fleurs (5 à 10 mm) ont un calice tubulé à 5 dents. Corolle papilionacée avec un étendard plus long que les ailes et la carène. 10 étamines. Ovaire supère monocarpellé.
-Fruit et graines
-Les fruits sont des gousses enroulées à deux ou trois spirales avec un trou central, garnies d'un duvet blanc dont dépassent deux rangées de petites épines. Graines lisses et réniformes (3 à 5 mm).
+Dissémination : épizoochore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée à tiges rampantes à ascendantes, d'une hauteur de 10 à 50 cm. L'ensemble de la plante est recouvert d'un épais feutre blanc. Feuilles alternes trifoliolées à stipules ovoïdes et pointues, entières ou légèrement dentées. Folioles ovoïdes terminées en pointe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en racème capituliforme portant de 5 à 12 fleurs jaune vif (soufré à doré). Les fleurs (5 à 10 mm) ont un calice tubulé à 5 dents. Corolle papilionacée avec un étendard plus long que les ailes et la carène. 10 étamines. Ovaire supère monocarpellé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luzerne_marine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses enroulées à deux ou trois spirales avec un trou central, garnies d'un duvet blanc dont dépassent deux rangées de petites épines. Graines lisses et réniformes (3 à 5 mm).
 </t>
         </is>
       </c>
